--- a/Pruebas de caja negra.xlsx
+++ b/Pruebas de caja negra.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36CF0666-EAC9-4798-BACF-C44F16205710}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22B409BE-89D2-4277-80A4-F76370A0475E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Clases de equivalencias válidas</t>
   </si>
@@ -101,6 +101,24 @@
   </si>
   <si>
     <t>4 rojos 0 blancos</t>
+  </si>
+  <si>
+    <t>Modo difícil</t>
+  </si>
+  <si>
+    <t>5 rojos 1 negro</t>
+  </si>
+  <si>
+    <t>7 rojo 0 blancos</t>
+  </si>
+  <si>
+    <t>0 rojos 7 blancos</t>
+  </si>
+  <si>
+    <t>1 rojo y 2 blancos</t>
+  </si>
+  <si>
+    <t>2 rojos 2 blancos</t>
   </si>
 </sst>
 </file>
@@ -124,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -573,37 +591,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -702,225 +689,409 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,783 +1386,1044 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="6"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="72"/>
     </row>
     <row r="2" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="11" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="18"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="30"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="42" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="44"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="22" t="s">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="39" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="78"/>
+      <c r="T6" s="79"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="40"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="1" t="s">
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="22" t="s">
+      <c r="V7" s="47"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="59" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="53"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="1" t="s">
+      <c r="S8" s="59"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22" t="s">
+      <c r="V8" s="47"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="61" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="52"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="1" t="s">
+      <c r="S9" s="62"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22" t="s">
+      <c r="V9" s="47"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="63" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="1" t="s">
+      <c r="S10" s="65"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="20" t="s">
+      <c r="V10" s="47"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="65" t="s">
+      <c r="L11" s="20"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="S10" s="66"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="1" t="s">
+      <c r="S11" s="68"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="56" t="s">
+      <c r="V11" s="47"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="45" t="s">
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="2" t="s">
+      <c r="S12" s="2"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="43"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="31"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="31"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="37"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
       <c r="Q13" s="30"/>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="5"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="32" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="22" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="22" t="s">
+      <c r="S16" s="20"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="22" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="59"/>
+      <c r="T17" s="60"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="1" t="s">
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="22" t="s">
+      <c r="V18" s="47"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="22" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="1" t="s">
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="s">
+      <c r="V19" s="47"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="71" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="68"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="1" t="s">
+      <c r="S20" s="50"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22" t="s">
+      <c r="V20" s="47"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="73" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="1" t="s">
+      <c r="S21" s="45"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="20" t="s">
+      <c r="V21" s="47"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="22" t="s">
+      <c r="L22" s="20"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="1" t="s">
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="56" t="s">
+      <c r="V22" s="47"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="75" t="s">
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="2" t="s">
+      <c r="S23" s="7"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="77" t="s">
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="78"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="23"/>
+      <c r="T26" s="24"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="20"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="V28" s="56"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="20"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="V29" s="47"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="50"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="V30" s="47"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" s="45"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31" s="47"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="V32" s="47"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="7"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="V33" s="43"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="11"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N21:Q22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="N11:Q12"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
+  <mergeCells count="243">
+    <mergeCell ref="N33:Q34"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V34"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U29:V29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -2000,6 +2432,170 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N12:Q13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
